--- a/data/trans_camb/P25A_5_R2-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P25A_5_R2-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,67 +548,103 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>M3/M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>M3/M2</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>1,75</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,7</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>32,96</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>0,87</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0,05</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1,44</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1,22</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>4,72</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-1,43</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>1,78</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1,59</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
           <t>0,99</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>1,3</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>30,9</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>0,83</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>1,49</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>31,85</t>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>2,9</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-0,37</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0,93</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 1,82</t>
+          <t>0,5; 3,3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,23; 3,23</t>
+          <t>-0,48; 1,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>20,35; 47,69</t>
+          <t>-0,32; 2,47</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 2,27</t>
+          <t>-0,94; 2,52</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 2,66</t>
+          <t>-1,63; 1,81</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>20,66; 43,24</t>
+          <t>0,13; 2,75</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 1,78</t>
+          <t>-0,05; 2,57</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,49; 2,47</t>
+          <t>2,78; 6,87</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>23,52; 41,28</t>
+          <t>-4,01; 0,87</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0,16; 3,66</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>0,6; 2,53</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>0,06; 1,93</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>1,74; 4,45</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-2,05; 1,05</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-0,26; 2,12</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>94,14%</t>
+          <t>278,61%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>247,64%</t>
+          <t>115,52%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4801,12%</t>
+          <t>143,33%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>79,75%</t>
+          <t>56,83%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>104,1%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>2480,56%</t>
+          <t>129,27%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>84,9%</t>
+          <t>109,06%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>152,35%</t>
+          <t>422,8%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>3255,48%</t>
+          <t>-24,57%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>67,87%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>180,22%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>111,63%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>328,86%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-9,68%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>37,54%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-59,83; —</t>
+          <t>-11,16; 1516,16</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-21,73; 1959,52</t>
+          <t>-55,94; 864,09</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1336,16; 25893,49</t>
+          <t>-57,54; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-41,68; 333,52</t>
+          <t>-43,0; 290,65</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-28,42; 436,34</t>
+          <t>-54,14; 124,69</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1016,78; 6091,44</t>
+          <t>-4,84; 454,29</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-10,38; 326,39</t>
+          <t>-8,41; 446,54</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>18,48; 421,09</t>
+          <t>143,86; 1076,38</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1539,3; 6871,65</t>
+          <t>-52,6; 22,71</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0,88; 180,87</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>33,69; 457,11</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-3,64; 357,17</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>113,52; 769,47</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-40,81; 35,25</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-9,9; 105,59</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>0,05</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
           <t>0,63</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,19</t>
-        </is>
-      </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>40,16</t>
+          <t>-0,79</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,54</t>
+          <t>3,46</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,66</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>29,38</t>
+          <t>-2,1</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,75</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>33,8</t>
+          <t>0,35</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>3,26</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-1,04</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0,08</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>0,63</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>1,83</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>2,38</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 2,7</t>
+          <t>-1,39; 1,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 1,52</t>
+          <t>-0,8; 2,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>15,62; 69,06</t>
+          <t>-2,02; 0,14</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 1,97</t>
+          <t>1,46; 6,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 0,44</t>
+          <t>-1,18; 4,94</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,11; 51,18</t>
+          <t>-4,84; 0,11</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 1,69</t>
+          <t>-3,08; 3,87</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 0,45</t>
+          <t>-1,29; 7,78</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>18,76; 49,37</t>
+          <t>-5,61; 4,34</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-0,6; 7,06</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-2,57; 0,19</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-1,61; 2,15</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-1,09; 3,91</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-1,54; 4,18</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-0,11; 4,74</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>59,19%</t>
+          <t>4,59%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>17,86%</t>
+          <t>56,13%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3759,29%</t>
+          <t>-70,43%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-14,74%</t>
+          <t>1044,39%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-45,3%</t>
+          <t>69,81%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>799,48%</t>
+          <t>-51,57%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>1,56%</t>
+          <t>-11,04%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-31,36%</t>
+          <t>50,24%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>1420,0%</t>
+          <t>5,77%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>101,24%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-39,72%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>3,08%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>24,27%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>56,66%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>88,05%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-55,02; 674,54</t>
+          <t>-76,18; 329,52</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-68,07; 404,68</t>
+          <t>-57,95; 746,08</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>710,08; 13804,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-62,87; 86,55</t>
+          <t>82,3; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-77,39; 24,81</t>
+          <t>-44,43; 480,63</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>251,43; 1905,46</t>
+          <t>-79,73; 11,86</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-46,97; 97,7</t>
+          <t>-62,4; 144,91</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-67,24; 27,48</t>
+          <t>-30,46; 275,41</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>631,22; 2716,69</t>
+          <t>-59,33; 108,45</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-19,85; 411,87</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-71,02; 14,89</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-49,3; 118,9</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-38,31; 192,96</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-34,27; 194,06</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-6,29; 268,81</t>
         </is>
       </c>
     </row>
@@ -1064,45 +1352,75 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,88</t>
+          <t>-1,23</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
+          <t>-2,23</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,3</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-0,44</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-0,28</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>2,49</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
           <t>-0,84</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-1,26</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>1,38</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-0,01</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-0,46</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-0,95</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-0,65</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
+      <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -1117,45 +1435,75 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,09; 1,21</t>
+          <t>-6,48; 2,8</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,12; 2,95</t>
+          <t>-7,88; 1,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
+          <t>-6,01; 5,42</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-4,79; 4,95</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,97; 3,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
+          <t>-5,45; 3,99</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-5,07; 4,38</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-3,22; 8,4</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-4,34; 2,16</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-4,31; 2,27</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-4,67; 2,28</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-4,91; 1,91</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-2,29; 5,37</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1170,45 +1518,75 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-59,39%</t>
+          <t>-35,59%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-26,56%</t>
+          <t>-64,46%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>8,61%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-0,19%</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-11,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
+          <t>-10,35%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-6,62%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>58,63%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-27,07%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-18,51%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-21,8%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-32,92%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>35,94%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1238,30 +1616,60 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-77,74; 272,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-78,36; 257,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
+          <t>-76,32; 247,75</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-76,68; 298,67</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-50,87; 434,59</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-77,44; 152,49</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-76,06; 135,46</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-75,93; 122,8</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-79,55; 106,35</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-43,84; 257,57</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>0,71</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
           <t>0,33</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>0,79</t>
-        </is>
-      </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>33,99</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>1,41</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>29,89</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>3,43</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>31,75</t>
+          <t>-1,19</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>2,11</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0,28</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0,37</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>1,83</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>0,06</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>1,27</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 1,2</t>
+          <t>-0,33; 1,8</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 1,81</t>
+          <t>-0,65; 1,3</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>22,09; 46,35</t>
+          <t>-0,89; 1,2</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 1,77</t>
+          <t>0,2; 2,97</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 1,22</t>
+          <t>-1,06; 2,2</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>21,19; 39,94</t>
+          <t>-1,63; 1,03</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 1,15</t>
+          <t>-0,99; 2,0</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 1,15</t>
+          <t>1,5; 5,72</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>24,65; 40,05</t>
+          <t>-3,75; 0,82</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>0,56; 3,73</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-0,61; 1,07</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-0,5; 1,47</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>0,87; 3,23</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-1,52; 1,3</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>0,16; 2,37</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>29,11%</t>
+          <t>60,42%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>68,83%</t>
+          <t>27,86%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>2977,3%</t>
+          <t>12,88%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>11,49%</t>
+          <t>107,09%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-1,72%</t>
+          <t>18,02%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>1203,46%</t>
+          <t>-5,15%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>16,93%</t>
+          <t>15,36%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>19,87%</t>
+          <t>131,53%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>1737,79%</t>
+          <t>-19,65%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>76,7%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>14,58%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>19,18%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>96,18%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>1,68%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>50,06%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,97 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-40,45; 169,35</t>
+          <t>-22,34; 255,32</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-17,75; 278,61</t>
+          <t>-40,65; 212,01</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1435,26; 6289,57</t>
+          <t>-54,85; 174,25</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-31,41; 93,69</t>
+          <t>8,23; 316,86</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-40,23; 67,43</t>
+          <t>-36,73; 127,15</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>678,86; 2058,79</t>
+          <t>-46,33; 52,7</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-21,72; 81,28</t>
+          <t>-31,83; 100,27</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-21,34; 81,16</t>
+          <t>36,11; 268,56</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>1094,51; 2599,05</t>
+          <t>-46,67; 19,31</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>14,93; 172,82</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-24,46; 73,95</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-21,99; 99,46</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>32,49; 216,79</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-32,88; 42,92</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>4,15; 114,72</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
